--- a/products.xlsx
+++ b/products.xlsx
@@ -9,41 +9,417 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="128">
   <si>
     <t>vu</t>
   </si>
   <si>
-    <t>df</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
-    <t>vuu</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>420735717_354304887402914_4152535099781446924_n.jpg</t>
+  </si>
+  <si>
+    <t>420694238_352962711022819_3716020766934080948_n.jpg</t>
+  </si>
+  <si>
+    <t>420404852_917625483419680_5117006984381521851_n.jpg</t>
+  </si>
+  <si>
+    <t>420390411_697384649215111_1593348611937608585_n.jpg</t>
+  </si>
+  <si>
+    <t>420357673_1084214769383190_117515083227984163_n.jpg</t>
+  </si>
+  <si>
+    <t>420349036_1132618224398611_9035729276076106762_n.jpg</t>
+  </si>
+  <si>
+    <t>420261897_345108415056089_8169084213188856998_n.jpg</t>
+  </si>
+  <si>
+    <t>420252403_909240197581097_3385040366301830248_n.jpg</t>
+  </si>
+  <si>
+    <t>420242992_1380114939305514_6083424072650132309_n.jpg</t>
+  </si>
+  <si>
+    <t>420198763_891530645787695_4573006184003981027_n.jpg</t>
+  </si>
+  <si>
+    <t>420197024_2303827216482377_2238300080282889198_n.jpg</t>
+  </si>
+  <si>
+    <t>420193712_913407863837076_2547172989579756998_n.jpg</t>
+  </si>
+  <si>
+    <t>420192815_899984144866228_3611717043022637258_n.jpg</t>
+  </si>
+  <si>
+    <t>420188195_1056266068787191_3811721612845577152_n.jpg</t>
+  </si>
+  <si>
+    <t>420186801_395216619659426_3570258747585976632_n.jpg</t>
+  </si>
+  <si>
+    <t>420182388_1023340248753330_1696027134540933912_n.jpg</t>
+  </si>
+  <si>
+    <t>420179367_1410380699567246_5052938882201287568_n.jpg</t>
+  </si>
+  <si>
+    <t>420177791_397144173061905_1588493699622482000_n.jpg</t>
+  </si>
+  <si>
+    <t>420171275_1087153452406473_7189851834468133423_n.jpg</t>
+  </si>
+  <si>
+    <t>420164178_1109009026789994_7516715954702493587_n.jpg</t>
+  </si>
+  <si>
+    <t>420160409_914775236784101_7554357796354231128_n.jpg</t>
+  </si>
+  <si>
+    <t>420157106_315863474785586_5576629017375404190_n.jpg</t>
+  </si>
+  <si>
+    <t>420155358_1596366571197887_2510456601693845732_n.jpg</t>
+  </si>
+  <si>
+    <t>420152017_723824799927560_8127292618199542418_n.jpg</t>
+  </si>
+  <si>
+    <t>420150385_358429696939914_5803652679894686077_n.jpg</t>
+  </si>
+  <si>
+    <t>420142649_290626410334637_8006071033372479846_n.jpg</t>
+  </si>
+  <si>
+    <t>420135451_354616170859387_7071630543251361868_n.jpg</t>
+  </si>
+  <si>
+    <t>420132336_2279931882216935_3585890501122338592_n.jpg</t>
+  </si>
+  <si>
+    <t>420130682_352116104269026_7305365662151873196_n.jpg</t>
+  </si>
+  <si>
+    <t>420109797_2042767042774583_7868410389239647409_n.jpg</t>
+  </si>
+  <si>
+    <t>420101736_3085481844917824_380861536427590205_n.jpg</t>
+  </si>
+  <si>
+    <t>420097018_3594485474125632_70908039691128198_n.jpg</t>
+  </si>
+  <si>
+    <t>420097015_1141218780377704_4066009240967117896_n.jpg</t>
+  </si>
+  <si>
+    <t>420093840_1122652595289022_6061696676977078881_n.jpg</t>
+  </si>
+  <si>
+    <t>420091507_1020665019029830_7795401469254298546_n.jpg</t>
+  </si>
+  <si>
+    <t>420088387_1090268345624100_1913046660861038055_n.jpg</t>
+  </si>
+  <si>
+    <t>420086811_295952143485705_7819151303184270258_n.jpg</t>
+  </si>
+  <si>
+    <t>420086018_751228223641354_6022998351603990676_n.jpg</t>
+  </si>
+  <si>
+    <t>420086016_2544874325681447_8534389357080763604_n.jpg</t>
+  </si>
+  <si>
+    <t>420086015_430579816068193_1245773347910051894_n.jpg</t>
+  </si>
+  <si>
+    <t>420085202_1081625399633337_3862269986386664802_n.jpg</t>
+  </si>
+  <si>
+    <t>420080888_7404888182896859_2054720185605792943_n.jpg</t>
+  </si>
+  <si>
+    <t>420076145_747173140847225_5911479179391834941_n.jpg</t>
+  </si>
+  <si>
+    <t>420074268_893738858896664_7779684495161235742_n.jpg</t>
+  </si>
+  <si>
+    <t>420074267_305234918689415_3800463555635525845_n.jpg</t>
+  </si>
+  <si>
+    <t>420073069_1855532134883347_5098548502893376485_n.jpg</t>
+  </si>
+  <si>
+    <t>420072012_1080394339669879_7219058973664706663_n.jpg</t>
+  </si>
+  <si>
+    <t>420068530_1086128206062585_1460361952664100038_n.jpg</t>
+  </si>
+  <si>
+    <t>420068326_1730202770808553_6229779005104987913_n.jpg</t>
+  </si>
+  <si>
+    <t>420066987_1772856506521958_3525780143859643885_n.jpg</t>
+  </si>
+  <si>
+    <t>420062894_1155147509192491_5522121232878166822_n.jpg</t>
+  </si>
+  <si>
+    <t>420061413_2169083913426154_3550115307417457054_n.jpg</t>
+  </si>
+  <si>
+    <t>420058484_833483358790914_3370657159752467777_n.jpg</t>
+  </si>
+  <si>
+    <t>420055623_229987020174713_7698171359437639837_n.jpg</t>
+  </si>
+  <si>
+    <t>420052580_238207312665245_4180688743810518882_n.jpg</t>
+  </si>
+  <si>
+    <t>420051361_298130549907999_1442122946645887062_n.jpg</t>
+  </si>
+  <si>
+    <t>420045988_7074425419309583_6292097477913192897_n.jpg</t>
+  </si>
+  <si>
+    <t>420042864_892538429030257_3879323440785654724_n.jpg</t>
+  </si>
+  <si>
+    <t>420041312_756756305900137_9185285512145675432_n.jpg</t>
+  </si>
+  <si>
+    <t>420040894_1091650565294156_5180893400996066234_n.jpg</t>
+  </si>
+  <si>
+    <t>420039335_3753491584923012_3740834310799347750_n.jpg</t>
+  </si>
+  <si>
+    <t>420031677_899062001684495_4749763829724588985_n.jpg</t>
+  </si>
+  <si>
+    <t>420022740_391009690082474_2580698865121298612_n.jpg</t>
+  </si>
+  <si>
+    <t>420013707_907125907750949_5232066175788519215_n.jpg</t>
+  </si>
+  <si>
+    <t>419986404_423761760077826_1334662778144585983_n.jpg</t>
+  </si>
+  <si>
+    <t>419972604_372869755359561_7674757003699042627_n.jpg</t>
+  </si>
+  <si>
+    <t>417562017_931572151920624_8477945142439852710_n.jpg</t>
+  </si>
+  <si>
+    <t>417548875_912024156861190_6832579487800789116_n.jpg</t>
+  </si>
+  <si>
+    <t>417425689_918328416584474_2031916126157908763_n.jpg</t>
+  </si>
+  <si>
+    <t>417341131_1543780989801290_1030591096694646636_n.jpg</t>
+  </si>
+  <si>
+    <t>417337775_594904779492920_7289624383706019203_n.jpg</t>
+  </si>
+  <si>
+    <t>417314086_1393937124663037_4070757948881880719_n.jpg</t>
+  </si>
+  <si>
+    <t>417306273_402522142236374_5145862561509510119_n.jpg</t>
+  </si>
+  <si>
+    <t>417306269_343867858636051_7203021337157838213_n.jpg</t>
+  </si>
+  <si>
+    <t>417302234_433083929051970_8629021020121758389_n.jpg</t>
+  </si>
+  <si>
+    <t>417289789_1495326077701758_527647955956080891_n.jpg</t>
+  </si>
+  <si>
+    <t>417289783_942559697437818_5823923337323197433_n.jpg</t>
+  </si>
+  <si>
+    <t>417289780_1058858885406472_8060758717581872893_n.jpg</t>
+  </si>
+  <si>
+    <t>417289098_901078794893007_7006074526427049535_n.jpg</t>
+  </si>
+  <si>
+    <t>417289079_697799125882244_6450772061651839066_n.jpg</t>
+  </si>
+  <si>
+    <t>417271560_917121632965867_6403795172139605548_n.jpg</t>
+  </si>
+  <si>
+    <t>417271559_381160464501635_2375334106549101997_n.jpg</t>
+  </si>
+  <si>
+    <t>417270439_1755327314949773_4357489060091481743_n.jpg</t>
+  </si>
+  <si>
+    <t>417270419_622410026677132_5649611870157691405_n.jpg</t>
+  </si>
+  <si>
+    <t>417265825_736916541708107_7939263627225374040_n.jpg</t>
+  </si>
+  <si>
+    <t>417264499_759500475593854_1087123124361135954_n.jpg</t>
+  </si>
+  <si>
+    <t>417259824_1043801143358371_4699504575763833485_n.jpg</t>
+  </si>
+  <si>
+    <t>417258559_1140415577092054_1867976469345075796_n.jpg</t>
+  </si>
+  <si>
+    <t>417257269_710027987787852_594042754702016869_n.jpg</t>
+  </si>
+  <si>
+    <t>417257251_385665720710347_6076707311026306450_n.jpg</t>
+  </si>
+  <si>
+    <t>417255907_400663479136933_7983522372089741868_n.jpg</t>
+  </si>
+  <si>
+    <t>417253199_637422321785665_3841457337544275947_n.jpg</t>
+  </si>
+  <si>
+    <t>417251356_1045730903380127_7479157091017974349_n.jpg</t>
+  </si>
+  <si>
+    <t>417251338_322118130825830_6298047499750228413_n.jpg</t>
+  </si>
+  <si>
+    <t>417241545_913813549945172_5239932641658635785_n.jpg</t>
+  </si>
+  <si>
+    <t>417224669_1167309714250079_4341408853613392983_n.jpg</t>
+  </si>
+  <si>
+    <t>417215843_7005098216278364_2790146512469768985_n.jpg</t>
+  </si>
+  <si>
+    <t>417212282_1632906457239248_7196192202681004369_n.jpg</t>
+  </si>
+  <si>
+    <t>417203179_756322409884515_3638875911155664393_n.jpg</t>
+  </si>
+  <si>
+    <t>417182467_1439411039999315_5176089900164242448_n.jpg</t>
+  </si>
+  <si>
+    <t>417167539_741235941282498_5588289466462683114_n.jpg</t>
+  </si>
+  <si>
+    <t>417163052_2815421805273747_3126479854956187347_n.jpg</t>
+  </si>
+  <si>
+    <t>417150206_1311095099524472_456262538005405135_n.jpg</t>
+  </si>
+  <si>
+    <t>417092948_7095016940605140_4206061200615806458_n.jpg</t>
+  </si>
+  <si>
+    <t>417064863_387892227255315_4210890943772613034_n.jpg</t>
+  </si>
+  <si>
+    <t>417064861_374476715175647_4312216519012102916_n.jpg</t>
+  </si>
+  <si>
+    <t>417044911_284034967713723_4601056595468025445_n.jpg</t>
+  </si>
+  <si>
+    <t>417042586_1284107598950877_8805356253450195043_n.jpg</t>
+  </si>
+  <si>
+    <t>417037718_293099646717316_6095291375444446781_n.jpg</t>
+  </si>
+  <si>
+    <t>417032542_750654290311053_6780179303819906357_n.jpg</t>
+  </si>
+  <si>
+    <t>417015545_355637354088798_998102469479400194_n.jpg</t>
+  </si>
+  <si>
+    <t>417015542_895092762169166_4752494855256728997_n.jpg</t>
+  </si>
+  <si>
+    <t>416986100_271387932642011_2324146124117880770_n.jpg</t>
+  </si>
+  <si>
+    <t>416974930_1119406072400353_4345138939618782433_n.jpg</t>
+  </si>
+  <si>
+    <t>416939123_896367365286092_6461068604369008812_n.jpg</t>
+  </si>
+  <si>
+    <t>416939123_342860158654901_6613823669728512124_n.jpg</t>
+  </si>
+  <si>
+    <t>416869049_711355187732588_2500473724430003704_n.jpg</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>QuantityPerUnit</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>UnitsInStock</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Lorem</t>
+  </si>
+  <si>
+    <t>1 Hình/ 3 - 5 ngày</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -70,8 +446,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,35 +758,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="60.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -421,59 +809,2844 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D3">
+        <v>7000</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="C4" t="str">
+        <f>C3</f>
+        <v>1 Hình/ 3 - 5 ngày</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>7000</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>1</v>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C68" si="0">C4</f>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D5">
+        <v>7000</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D6">
+        <v>7000</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D7">
+        <v>7000</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D8">
+        <v>7000</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D9">
+        <v>7000</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D10">
+        <v>7000</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D11">
+        <v>7000</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D12">
+        <v>7000</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D13">
+        <v>7000</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D14">
+        <v>7000</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D15">
+        <v>7000</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D16">
+        <v>7000</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D17">
+        <v>7000</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D18">
+        <v>7000</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D19">
+        <v>7000</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D20">
+        <v>7000</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D21">
+        <v>7000</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D22">
+        <v>7000</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D23">
+        <v>7000</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D24">
+        <v>7000</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D25">
+        <v>7000</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D26">
+        <v>7000</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D27">
+        <v>7000</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D28">
+        <v>7000</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D29">
+        <v>7000</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D30">
+        <v>7000</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D31">
+        <v>7000</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D32">
+        <v>7000</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D33">
+        <v>7000</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D34">
+        <v>7000</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D35">
+        <v>7000</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D36">
+        <v>7000</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D37">
+        <v>7000</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D38">
+        <v>7000</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D39">
+        <v>7000</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D40">
+        <v>7000</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D41">
+        <v>7000</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D42">
+        <v>7000</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D43">
+        <v>7000</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D44">
+        <v>7000</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D45">
+        <v>7000</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D46">
+        <v>7000</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D47">
+        <v>7000</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D48">
+        <v>7000</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D49">
+        <v>7000</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D50">
+        <v>7000</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D51">
+        <v>7000</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D52">
+        <v>7000</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D53">
+        <v>7000</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D54">
+        <v>7000</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D55">
+        <v>7000</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D56">
+        <v>7000</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D57">
+        <v>7000</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D58">
+        <v>7000</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D59">
+        <v>7000</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D60">
+        <v>7000</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D61">
+        <v>7000</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D62">
+        <v>7000</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D63">
+        <v>7000</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D64">
+        <v>7000</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D65">
+        <v>7000</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D66">
+        <v>7000</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D67">
+        <v>7000</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="0"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D68">
+        <v>7000</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" ref="C69:C120" si="1">C68</f>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D69">
+        <v>7000</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D70">
+        <v>7000</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D71">
+        <v>7000</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D72">
+        <v>7000</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D73">
+        <v>7000</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D74">
+        <v>7000</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D75">
+        <v>7000</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D76">
+        <v>7000</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D77">
+        <v>7000</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D78">
+        <v>7000</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D79">
+        <v>7000</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D80">
+        <v>7000</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D81">
+        <v>7000</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D82">
+        <v>7000</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D83">
+        <v>7000</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D84">
+        <v>7000</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D85">
+        <v>7000</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D86">
+        <v>7000</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D87">
+        <v>7000</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D88">
+        <v>7000</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D89">
+        <v>7000</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D90">
+        <v>7000</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D91">
+        <v>7000</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D92">
+        <v>7000</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D93">
+        <v>7000</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D94">
+        <v>7000</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D95">
+        <v>7000</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D96">
+        <v>7000</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D97">
+        <v>7000</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D98">
+        <v>7000</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D99">
+        <v>7000</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D100">
+        <v>7000</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D101">
+        <v>7000</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D102">
+        <v>7000</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D103">
+        <v>7000</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D104">
+        <v>7000</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D105">
+        <v>7000</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D106">
+        <v>7000</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D107">
+        <v>7000</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D108">
+        <v>7000</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D109">
+        <v>7000</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D110">
+        <v>7000</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D111">
+        <v>7000</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D112">
+        <v>7000</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D113">
+        <v>7000</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D114">
+        <v>7000</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D115">
+        <v>7000</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D116">
+        <v>7000</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D117">
+        <v>7000</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D118">
+        <v>7000</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D119">
+        <v>7000</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v>1 Hình/ 3 - 5 ngày</v>
+      </c>
+      <c r="D120">
+        <v>7000</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
